--- a/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,25%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,13; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 5,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,08; 42,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,85; 395,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,98; 257,54</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 12,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 3,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,22; 85,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,29; 44,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,76; 154,41</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,14%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,04; 8,55</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 0,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-30,42; 123,56</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,67; 154,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 8,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; -0,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 56,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,49; 5,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,35; 144,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-43,31%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 6,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; -0,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 1,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 43,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-72,63; -3,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; 76,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,28%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.217855529171083</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.06742512435022191</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5424960335370183</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1227737624374971</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.01723279595681202</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1554459418935087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; 10,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 5,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-54,08; 42,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-79,85; 395,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,98; 257,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.1304918657258</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.702950775698038</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.110667862449757</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5407909686849082</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7786297754220801</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6151013146179933</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.51552235364073</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.134299299012582</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.744264259075996</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4274587952601107</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.802823142192183</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.245584055321721</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>30,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-41,4%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 12,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 1,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 3,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 85,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-83,29; 44,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,76; 154,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.169462887665513</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.02826008762374</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.419970151115482</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3028679438512646</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3630605421991262</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1227652901553212</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-63,05%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-12,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.944235911958169</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.02110261882994</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.22828127311352</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1021713925093146</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8214968387549123</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4732169044242075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 8,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 0,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 1,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; 123,56</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-76,67; 154,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.00141553666313</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.25694474705519</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.913260119365725</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.8585612821594305</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5188119850281337</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.44878412160726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,66%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-55,63%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.206511250376904</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3512482091355764</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2979870992669078</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2145224955014555</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.5894873890392935</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1394129803551094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 8,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; -0,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 3,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 56,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-84,49; 5,19</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-57,35; 144,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.042714243620375</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.664047491501516</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.725147955078194</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3042321138008861</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.7775709407778871</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.551926727947901</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2486148823083598</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.564757353305501</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.235556162885957</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.457482424255579</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-43,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 6,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; -0,15</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 1,82</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 43,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-72,63; -3,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-28,58; 76,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.283741541570194</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.062557991058018</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1980843197855773</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1321142116245508</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.3043512192241979</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.06593798690574372</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.800215563590107</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.841042310012545</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.497081560190223</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1829521824149936</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7443895727903377</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3795229182245515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.077259870553615</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.866803544343159</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.831527942803986</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4839580660527194</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4548975751198227</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9071980336304055</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
